--- a/output7/【河洛文讀注音-閩拼調號】《赤壁賦》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《赤壁賦》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE936847-F8AA-47ED-B81A-63262BDCFF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{005A5EEE-91B2-493D-BEF2-F15D42C7AB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="10920" yWindow="1380" windowWidth="25080" windowHeight="12270" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -13003,8 +13003,8 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -13180,7 +13180,7 @@
         <v>1265</v>
       </c>
       <c r="C20" s="53">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22809,7 +22809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A185" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A197" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
